--- a/files/templates/CLASS 11 SCIENCE UT-2.xlsx
+++ b/files/templates/CLASS 11 SCIENCE UT-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -28,31 +28,25 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
     <t>Marks</t>
+  </si>
+  <si>
+    <t>Physical Education (0)/ Home Science (1)/ Information Practice (2)</t>
+  </si>
+  <si>
+    <t>Maths(0)/   Biology(1)</t>
   </si>
   <si>
     <t>Painting (0)/ Hindustani Music (1)</t>
   </si>
   <si>
-    <t>Scholar Number</t>
-  </si>
-  <si>
-    <t>CLASS 11-COMMERCE (2017)</t>
-  </si>
-  <si>
-    <t>Business Studies</t>
-  </si>
-  <si>
-    <t>Accountancy</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Physical Education (0)/ Home Science (1)/ Information Practice (2)/ Maths (3) / Hindi (4)</t>
-  </si>
-  <si>
-    <t>MAXIMUM MARKS</t>
+    <t>CLASS 11-SCIENCE (2017)</t>
   </si>
   <si>
     <t>Attendance</t>
@@ -61,7 +55,22 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>UNIT TEST-2 (UT-2)</t>
+    <t>MAXIMUM MARKS</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>0/1/2</t>
+  </si>
+  <si>
+    <t>UNIT TEST-2</t>
   </si>
 </sst>
 </file>
@@ -109,18 +118,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -135,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -234,51 +237,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -311,48 +273,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -365,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,40 +304,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,16 +331,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -446,11 +343,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFF66"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -746,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A3" sqref="A3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,85 +652,86 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="6"/>
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="6"/>
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="6"/>
+    <row r="3" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -849,48 +742,50 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:21" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:22" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="H6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="K6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -898,24 +793,52 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="5"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17">
+        <v>80</v>
+      </c>
+      <c r="D7" s="17">
+        <v>80</v>
+      </c>
+      <c r="E7" s="17">
+        <v>80</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="17">
+        <v>80</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="17">
+        <v>80</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="17">
+        <v>80</v>
+      </c>
+      <c r="L7" s="17">
+        <f>C7+D7+E7+G7+I7+K7</f>
+        <v>480</v>
+      </c>
+      <c r="M7" s="17">
+        <v>150</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -923,8 +846,9 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -933,12 +857,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="12"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="18">
+        <f>SUMIF(C8:K8,"&lt;&gt;#AB")-F8-H8-K8</f>
+        <v>0</v>
+      </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -946,8 +873,9 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -956,12 +884,15 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="12"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="18">
+        <f t="shared" ref="L9:L56" si="0">SUMIF(C9:K9,"&lt;&gt;#AB")-F9-H9-K9</f>
+        <v>0</v>
+      </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -969,8 +900,9 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -979,12 +911,15 @@
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="12"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -992,8 +927,9 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1002,12 +938,15 @@
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="12"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="2"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -1015,8 +954,9 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1025,12 +965,15 @@
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="12"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="2"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -1038,8 +981,9 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1048,12 +992,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="12"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="5"/>
+      <c r="N13" s="2"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -1061,8 +1008,9 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1071,12 +1019,15 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="12"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1084,8 +1035,9 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1094,12 +1046,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="12"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1107,8 +1062,9 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1117,12 +1073,15 @@
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="12"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="5"/>
+      <c r="N16" s="2"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1130,8 +1089,9 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1140,12 +1100,15 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="12"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="5"/>
+      <c r="N17" s="2"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -1153,8 +1116,9 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1163,12 +1127,15 @@
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="12"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="5"/>
+      <c r="N18" s="2"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -1176,8 +1143,9 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1186,12 +1154,15 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="12"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="5"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -1199,8 +1170,9 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1209,12 +1181,15 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="12"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -1222,8 +1197,9 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1232,12 +1208,15 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="12"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="2"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1245,8 +1224,9 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1255,12 +1235,15 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="12"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="5"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -1268,8 +1251,9 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1278,12 +1262,15 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="12"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="2"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -1291,8 +1278,9 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1301,12 +1289,15 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="12"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1314,8 +1305,9 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1324,13 +1316,17 @@
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="13"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1339,13 +1335,17 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="13"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1354,13 +1354,17 @@
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="13"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1369,13 +1373,17 @@
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="13"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1384,13 +1392,17 @@
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="13"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1399,13 +1411,17 @@
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="13"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1414,13 +1430,17 @@
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="13"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1429,13 +1449,17 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="13"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1444,13 +1468,17 @@
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="13"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1459,13 +1487,17 @@
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="13"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1474,13 +1506,17 @@
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="13"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1489,13 +1525,17 @@
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="13"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1504,13 +1544,17 @@
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="13"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1519,13 +1563,17 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="13"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1534,13 +1582,17 @@
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="13"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1549,13 +1601,17 @@
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="13"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1564,13 +1620,17 @@
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="13"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1579,13 +1639,17 @@
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="13"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1594,13 +1658,17 @@
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="13"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1609,13 +1677,17 @@
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="13"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1624,13 +1696,17 @@
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="13"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1639,13 +1715,17 @@
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="13"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1654,13 +1734,17 @@
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="13"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1669,13 +1753,17 @@
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="13"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1684,13 +1772,17 @@
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="13"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M49" s="9"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1699,13 +1791,17 @@
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="13"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1714,13 +1810,17 @@
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="13"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1729,13 +1829,17 @@
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="13"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1744,13 +1848,17 @@
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="13"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1759,13 +1867,17 @@
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="13"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1774,13 +1886,17 @@
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="13"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1789,17 +1905,21 @@
       <c r="F56" s="9"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="13"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
